--- a/biology/Botanique/Parc_de_Tung_Chau_Street/Parc_de_Tung_Chau_Street.xlsx
+++ b/biology/Botanique/Parc_de_Tung_Chau_Street/Parc_de_Tung_Chau_Street.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Tung Chau Street  (通州街公園) est un jardin public de Hong Kong situé à New Kowloon dans le quartier de Sham Shui Po près de Nam Cheong Estate (en). Sa création est un projet commun du conseil urbain et du département du logement (en)[1].
-Il est inauguré le 29 octobre 1989 sur 5,5 hectares[1] et se trouve juste en face du parc de Nam Cheong, un autre jardin public de taille similaire.
+Le parc de Tung Chau Street  (通州街公園) est un jardin public de Hong Kong situé à New Kowloon dans le quartier de Sham Shui Po près de Nam Cheong Estate (en). Sa création est un projet commun du conseil urbain et du département du logement (en).
+Il est inauguré le 29 octobre 1989 sur 5,5 hectares et se trouve juste en face du parc de Nam Cheong, un autre jardin public de taille similaire.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil urbain tient une cérémonie d'ouverture officielle au parc le 21 avril 1990, en présence des conseillers urbains Tong Kam-biu et Ronnie Wong (en).
 </t>
@@ -544,7 +558,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Terrains de basket (2)
 Place centrale
